--- a/Cleaned_data_Notcollinear?.xlsx
+++ b/Cleaned_data_Notcollinear?.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessebecklevisohn/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A33772-2171-C64F-952B-CCF39BB55614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA03CF3-24A2-0A4E-97EF-540600967E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pH control" sheetId="16" r:id="rId1"/>
@@ -9912,7 +9912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F87D8-61D0-DF4D-A010-96854C67E199}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -11099,8 +11099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20815BDD-EA8C-2D46-845A-59FD9781CE26}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I41" sqref="I2:I41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12032,7 +12032,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>84</v>
+      </c>
       <c r="B33" s="15">
         <v>14.983999999999998</v>
       </c>
@@ -12060,7 +12063,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>84</v>
+      </c>
       <c r="B34" s="15">
         <v>13.48</v>
       </c>
@@ -12088,7 +12094,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>84</v>
+      </c>
       <c r="B35" s="15">
         <v>11.870999999999999</v>
       </c>
@@ -12116,7 +12125,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>84</v>
+      </c>
       <c r="B36" s="15">
         <v>10.844999999999999</v>
       </c>
@@ -12144,7 +12156,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>84</v>
+      </c>
       <c r="B37" s="15">
         <v>14.800999999999998</v>
       </c>
@@ -12172,7 +12187,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>84</v>
+      </c>
       <c r="B38" s="15">
         <v>15.567</v>
       </c>
@@ -12200,7 +12218,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>84</v>
+      </c>
       <c r="B39" s="15">
         <v>9.2409999999999997</v>
       </c>
@@ -12228,7 +12249,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>84</v>
+      </c>
       <c r="B40" s="15">
         <v>8.7940000000000005</v>
       </c>
@@ -12256,7 +12280,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>84</v>
+      </c>
       <c r="B41" s="16">
         <v>10.420999999999999</v>
       </c>
